--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1839695.893327679</v>
+        <v>1837198.15797723</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283197</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>261.4873546350647</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>12.93856390941626</v>
       </c>
       <c r="H2" t="n">
-        <v>104.0243521498562</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.3310866359323</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36059768091647</v>
+        <v>1.360597680916896</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.1464635459285</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370735</v>
+        <v>44.34001494201957</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353349</v>
+        <v>21.62032152353372</v>
       </c>
       <c r="S3" t="n">
-        <v>146.6825794839475</v>
+        <v>148.1873837356351</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>70.51896598537672</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.6100444894003</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>179.2037359683205</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>34.67321335799673</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>75.77155808588338</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>274.9358933657769</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.3860496764734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>252.108512051538</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>163.1393867688828</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.4618010559469</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>129.2224443473098</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>153.034789258165</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>140.7058473537592</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833902</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.0280580960833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>23.62554568141315</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5981994227929</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057989</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3892167411519</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>61.44013021076765</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.0280580960833</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>31.830252057639</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D40" t="n">
-        <v>41.33703994142957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>211.8172046759413</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>211.8579886296158</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>32.84316668127826</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>932.541549483303</v>
+        <v>511.6993088964408</v>
       </c>
       <c r="C2" t="n">
-        <v>563.5790325428914</v>
+        <v>511.6993088964408</v>
       </c>
       <c r="D2" t="n">
-        <v>563.5790325428914</v>
+        <v>511.6993088964408</v>
       </c>
       <c r="E2" t="n">
-        <v>177.7907799446471</v>
+        <v>511.6993088964408</v>
       </c>
       <c r="F2" t="n">
-        <v>170.8452791954437</v>
+        <v>504.7538081472374</v>
       </c>
       <c r="G2" t="n">
-        <v>157.7760227212858</v>
+        <v>491.6845516730795</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961285</v>
+        <v>173.2373706870193</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088521</v>
+        <v>72.11519083088464</v>
       </c>
       <c r="K2" t="n">
-        <v>151.950669111822</v>
+        <v>151.9506691118206</v>
       </c>
       <c r="L2" t="n">
-        <v>699.7444981326171</v>
+        <v>381.1637770428542</v>
       </c>
       <c r="M2" t="n">
-        <v>1327.69704205424</v>
+        <v>1009.116320964476</v>
       </c>
       <c r="N2" t="n">
-        <v>1951.178517094874</v>
+        <v>1632.597796005108</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.726756291969</v>
+        <v>2176.146035202202</v>
       </c>
       <c r="P2" t="n">
         <v>2602.377499016428</v>
@@ -4352,28 +4352,28 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888808</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="S2" t="n">
-        <v>2633.671635888808</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2633.671635888808</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="U2" t="n">
-        <v>2379.978182333879</v>
+        <v>2223.264582792537</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.915294990309</v>
+        <v>1892.201695448966</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.146639720195</v>
+        <v>1539.433040178852</v>
       </c>
       <c r="X2" t="n">
-        <v>1322.680881459115</v>
+        <v>1165.967281917772</v>
       </c>
       <c r="Y2" t="n">
-        <v>932.541549483303</v>
+        <v>775.8279499419607</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935055</v>
+        <v>965.1304038988715</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123786</v>
+        <v>790.6773746177445</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511273</v>
+        <v>641.7429649564932</v>
       </c>
       <c r="E3" t="n">
-        <v>484.0255142456718</v>
+        <v>482.5055099510377</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725568</v>
+        <v>335.9709519779227</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679829</v>
+        <v>198.5178481733488</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507483</v>
+        <v>97.48881342044071</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>170.2762045496335</v>
+        <v>89.8349027436546</v>
       </c>
       <c r="K3" t="n">
-        <v>417.4106350564505</v>
+        <v>417.4106350564554</v>
       </c>
       <c r="L3" t="n">
-        <v>919.2810287940446</v>
+        <v>919.2810287940487</v>
       </c>
       <c r="M3" t="n">
-        <v>1556.919328228933</v>
+        <v>1556.919328228936</v>
       </c>
       <c r="N3" t="n">
-        <v>1752.592078885226</v>
+        <v>1752.592078885229</v>
       </c>
       <c r="O3" t="n">
-        <v>2299.29831884623</v>
+        <v>2299.298318846231</v>
       </c>
       <c r="P3" t="n">
-        <v>2405.797066257506</v>
+        <v>2405.797066257507</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4434,25 +4434,25 @@
         <v>2613.207268371013</v>
       </c>
       <c r="S3" t="n">
-        <v>2465.043046670055</v>
+        <v>2463.523042375421</v>
       </c>
       <c r="T3" t="n">
-        <v>2268.006566775194</v>
+        <v>2266.48656248056</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.867009144004</v>
+        <v>2038.34700484937</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.714900912262</v>
+        <v>1803.194896617628</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.47754418406</v>
+        <v>1548.957539889426</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.626043978527</v>
+        <v>1341.106039683893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.865745213574</v>
+        <v>1133.34574091894</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.9321983127207</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C4" t="n">
         <v>52.70091953961285</v>
@@ -4489,49 +4489,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131525</v>
+        <v>152.6313247131522</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039134</v>
+        <v>336.0342731039126</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856117</v>
+        <v>539.7960902856105</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066373</v>
+        <v>744.1475233066355</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249429</v>
+        <v>916.8828514249408</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351319</v>
+        <v>1041.167083351316</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221466</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221469</v>
+        <v>912.8607263634857</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221469</v>
+        <v>731.8468516480104</v>
       </c>
       <c r="T4" t="n">
-        <v>1043.779963221469</v>
+        <v>731.8468516480104</v>
       </c>
       <c r="U4" t="n">
-        <v>1043.779963221469</v>
+        <v>731.8468516480104</v>
       </c>
       <c r="V4" t="n">
-        <v>1043.779963221469</v>
+        <v>731.8468516480104</v>
       </c>
       <c r="W4" t="n">
-        <v>754.3627931845078</v>
+        <v>442.4296816110499</v>
       </c>
       <c r="X4" t="n">
-        <v>526.3732422864905</v>
+        <v>442.4296816110499</v>
       </c>
       <c r="Y4" t="n">
-        <v>305.5806631429604</v>
+        <v>221.6371024675198</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1362.457193970465</v>
+        <v>1058.752352610001</v>
       </c>
       <c r="C5" t="n">
-        <v>1362.457193970465</v>
+        <v>1058.752352610001</v>
       </c>
       <c r="D5" t="n">
-        <v>1004.191495363714</v>
+        <v>1058.752352610001</v>
       </c>
       <c r="E5" t="n">
-        <v>618.4032427654699</v>
+        <v>672.9641000117563</v>
       </c>
       <c r="F5" t="n">
-        <v>207.4173379758624</v>
+        <v>261.9781952221487</v>
       </c>
       <c r="G5" t="n">
-        <v>172.393890139502</v>
+        <v>248.9308174989802</v>
       </c>
       <c r="H5" t="n">
         <v>172.393890139502</v>
@@ -4571,16 +4571,16 @@
         <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>1030.215540799241</v>
+        <v>616.7309383942948</v>
       </c>
       <c r="M5" t="n">
-        <v>1216.914953624649</v>
+        <v>1248.448749377606</v>
       </c>
       <c r="N5" t="n">
-        <v>1623.585605852676</v>
+        <v>1875.756417437453</v>
       </c>
       <c r="O5" t="n">
-        <v>2170.746810619753</v>
+        <v>2422.91762220453</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.830939477471</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.830939477471</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.830939477471</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W5" t="n">
-        <v>2126.062284207356</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="X5" t="n">
-        <v>1752.596525946276</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="Y5" t="n">
-        <v>1362.457193970465</v>
+        <v>1445.352192674122</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>120.3087392029699</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L6" t="n">
-        <v>624.6702790690885</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M6" t="n">
-        <v>1265.215628536193</v>
+        <v>1383.874880393089</v>
       </c>
       <c r="N6" t="n">
-        <v>1638.905258545106</v>
+        <v>2036.048759695798</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.341267297829</v>
+        <v>2503.619408251367</v>
       </c>
       <c r="P6" t="n">
         <v>2612.309035778665</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.5567829601589</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C7" t="n">
-        <v>497.620600032252</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>347.5039606199163</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
         <v>52.70091953961285</v>
@@ -4750,25 +4750,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.635600998958</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="V7" t="n">
-        <v>1052.635600998958</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="W7" t="n">
-        <v>1052.635600998958</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="X7" t="n">
-        <v>1052.635600998958</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.2052477903986</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2248.446136916521</v>
+        <v>1283.61280482018</v>
       </c>
       <c r="C8" t="n">
-        <v>1879.483619976109</v>
+        <v>914.6502878797686</v>
       </c>
       <c r="D8" t="n">
-        <v>1521.217921369358</v>
+        <v>914.6502878797686</v>
       </c>
       <c r="E8" t="n">
-        <v>1135.429668771114</v>
+        <v>914.6502878797686</v>
       </c>
       <c r="F8" t="n">
-        <v>724.4437639815067</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G8" t="n">
-        <v>307.3559822179341</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
@@ -4805,16 +4805,16 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>644.8079315733946</v>
+        <v>423.5656054180344</v>
       </c>
       <c r="L8" t="n">
-        <v>784.1365874146478</v>
+        <v>976.3788636642336</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.059552207387</v>
+        <v>1163.078276489641</v>
       </c>
       <c r="N8" t="n">
-        <v>1413.39376509937</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O8" t="n">
         <v>1960.554969866447</v>
@@ -4829,25 +4829,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.045976980643</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.045976980643</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W8" t="n">
-        <v>2635.045976980643</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.045976980643</v>
+        <v>2060.351976860114</v>
       </c>
       <c r="Y8" t="n">
-        <v>2635.045976980643</v>
+        <v>1670.212644884302</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>500.7885757023184</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.150115568437</v>
+        <v>376.1975890755595</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.647451923042</v>
+        <v>1016.742938542664</v>
       </c>
       <c r="N9" t="n">
-        <v>1746.206884640153</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O9" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P9" t="n">
         <v>2404.332520920175</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.6668354622486</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C10" t="n">
-        <v>350.7306525343417</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
         <v>52.70091953961285</v>
@@ -4987,25 +4987,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.635600998958</v>
+        <v>562.9106687201036</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.635600998958</v>
+        <v>562.9106687201036</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.635600998958</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X10" t="n">
-        <v>922.1078794360185</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.3153002924884</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206043</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1192.200273794374</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.4076946508441</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>377.6556127449245</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5835,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9926444679666</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>483.8760050556308</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>483.8760050556308</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>483.8760050556308</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122182</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C34" t="n">
-        <v>634.334587849125</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.0655846733346</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1294017454277</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.7140495035743</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424041</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782943</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038329</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,40 +7658,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>810.0653816078141</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C46" t="n">
-        <v>641.1291986799072</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675714</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1219.703397336071</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>991.7138464380538</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>991.7138464380538</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>416.0091887065238</v>
+        <v>94.21048053504856</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7994,7 +7994,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>44.83719513234965</v>
       </c>
       <c r="K3" t="n">
-        <v>183.2113968045136</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8219,19 +8219,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>214.4812518545905</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>67.08071667170768</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>176.8008973295436</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>311.1700362493012</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>100.6683154445382</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>250.7308605730626</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5683748125724</v>
+        <v>217.7061247386731</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>65.54986409392978</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>5.728115292809974</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788484</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016463</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5874149221290565</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9259388694759707</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>124.5310997715149</v>
       </c>
     </row>
     <row r="29">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>40.32043864788528</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5874149221290565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>186.7544012944558</v>
       </c>
     </row>
     <row r="38">
@@ -25445,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D40" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>40.32043864788668</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>74.66500970697516</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>185.7414866708165</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>942669.7381552059</v>
+        <v>942669.7381552061</v>
       </c>
     </row>
     <row r="3">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.0343168798</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.0343168798</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.0343168798</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168798</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583915</v>
@@ -26320,40 +26320,40 @@
         <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="I2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907535</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907539</v>
-      </c>
       <c r="M2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918878</v>
+        <v>787455.5478918862</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.24700849981</v>
+        <v>4906.247008501372</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765845</v>
+        <v>775688.3472765849</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157137</v>
+        <v>128077.5968157139</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909052</v>
+        <v>190891.9800909055</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26424,40 +26424,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707335</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.424496707335</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707331</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.424496707368</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707372</v>
-      </c>
       <c r="L4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707349</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707369</v>
+        <v>6897.42449670735</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707331</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707372</v>
+        <v>6897.424496707349</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707337</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051735</v>
+        <v>86500.62127051732</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26476,10 +26476,10 @@
         <v>86618.07783747558</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510644.9545949191</v>
+        <v>-510644.9545949176</v>
       </c>
       <c r="C6" t="n">
-        <v>272787.0573907973</v>
+        <v>272787.0573907958</v>
       </c>
       <c r="D6" t="n">
         <v>277693.3043992969</v>
       </c>
       <c r="E6" t="n">
-        <v>-338884.3468064452</v>
+        <v>-338919.0847318809</v>
       </c>
       <c r="F6" t="n">
-        <v>436804.0004701396</v>
+        <v>436769.2625447038</v>
       </c>
       <c r="G6" t="n">
-        <v>436804.0004701394</v>
+        <v>436769.2625447039</v>
       </c>
       <c r="H6" t="n">
-        <v>436804.0004701394</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="I6" t="n">
-        <v>436804.0004701393</v>
+        <v>436769.2625447038</v>
       </c>
       <c r="J6" t="n">
-        <v>264443.0080698585</v>
+        <v>264408.2701444229</v>
       </c>
       <c r="K6" t="n">
-        <v>436804.000470139</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="L6" t="n">
-        <v>436804.0004701394</v>
+        <v>436769.2625447036</v>
       </c>
       <c r="M6" t="n">
-        <v>308726.4036544256</v>
+        <v>308691.6657289899</v>
       </c>
       <c r="N6" t="n">
-        <v>436804.0004701393</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="O6" t="n">
-        <v>436804.0004701391</v>
+        <v>436769.2625447041</v>
       </c>
       <c r="P6" t="n">
-        <v>436804.0004701393</v>
+        <v>436769.2625447038</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225484</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26796,10 +26796,10 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225484</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515022</v>
+        <v>5.387915915516738</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>121.2464870284159</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>211.2383570263434</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359321</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459283</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>212.7466796050974</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.504804251687908</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.504804251687489</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>96.72785511325111</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>152.7984799768617</v>
       </c>
       <c r="I4" t="n">
         <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775194</v>
+        <v>18.38275699775215</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894001</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822505</v>
+        <v>26.33146781393003</v>
       </c>
       <c r="T4" t="n">
         <v>223.4144181712553</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>378.24369058794</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>239.2693259893322</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27822,25 +27822,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>11.5871049708141</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.19860367562134</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>62.93237202367752</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>206.5917139095862</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28059,22 +28059,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>6.798853602150132</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>96.48721104172736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30192,7 +30192,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>-3.287668775498232e-12</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718793</v>
+        <v>2.364173605718785</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956759</v>
+        <v>24.21209293956752</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447383</v>
+        <v>91.14480293447357</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683755</v>
+        <v>200.656279568375</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984521</v>
+        <v>300.7317482984512</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844687</v>
+        <v>373.0843262844676</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451702</v>
+        <v>415.128198645169</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024187</v>
+        <v>421.8454069024176</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105525</v>
+        <v>398.3366556105514</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193698</v>
+        <v>339.9711197193687</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645654</v>
+        <v>255.3041524645647</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602332</v>
+        <v>148.5085202602328</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031704</v>
+        <v>53.87360604031688</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903402</v>
+        <v>10.34916995903399</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575034</v>
+        <v>0.1891338884575028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682466</v>
+        <v>1.264944396682463</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2166998311175</v>
+        <v>12.21669983111747</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770773</v>
+        <v>43.5518136577076</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777939</v>
+        <v>119.5095054777936</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555191</v>
+        <v>204.2607800555185</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305504</v>
+        <v>274.6538261305496</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102897</v>
+        <v>320.5080605102888</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704981</v>
+        <v>328.9909551704972</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808498</v>
+        <v>300.9624503808488</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489527</v>
+        <v>241.548899748952</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361689</v>
+        <v>161.4690426361684</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910964</v>
+        <v>78.53751262910941</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820281</v>
+        <v>23.49578736820274</v>
       </c>
       <c r="T3" t="n">
-        <v>5.09861359890871</v>
+        <v>5.098613598908695</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753071</v>
+        <v>0.08322002609753046</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942303</v>
+        <v>1.0604868899423</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577939</v>
+        <v>9.428692530577912</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753764</v>
+        <v>31.89173301753755</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892083</v>
+        <v>74.97642311892062</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314785</v>
+        <v>123.2092950314781</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646948</v>
+        <v>157.6654781646944</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934103</v>
+        <v>166.2361403934098</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308982</v>
+        <v>162.2834165308977</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983903</v>
+        <v>149.8950014983899</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435672</v>
+        <v>128.2610689435669</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780506</v>
+        <v>88.8013158478048</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776937</v>
+        <v>47.68334688776923</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472177</v>
+        <v>18.48139425472172</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026203</v>
+        <v>4.53117125702619</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139842</v>
+        <v>0.05784473945139826</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>202.2352659288679</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550387</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>209.2370040367367</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182826</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500296</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,22 +33974,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168925</v>
+        <v>19.61037504168868</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347154</v>
+        <v>80.64189725347069</v>
       </c>
       <c r="L2" t="n">
-        <v>553.3271000210052</v>
+        <v>231.5283918495289</v>
       </c>
       <c r="M2" t="n">
-        <v>634.29549891073</v>
+        <v>634.2954989107287</v>
       </c>
       <c r="N2" t="n">
-        <v>629.779267717812</v>
+        <v>629.7792677178109</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516111</v>
+        <v>549.03862545161</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641002</v>
+        <v>430.5368321355818</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011593</v>
+        <v>32.9984625901152</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>118.762914151536</v>
+        <v>37.50907394347651</v>
       </c>
       <c r="K3" t="n">
-        <v>249.6307378856737</v>
+        <v>330.8845780937381</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541354</v>
+        <v>506.9397916541346</v>
       </c>
       <c r="M3" t="n">
-        <v>644.0790903382713</v>
+        <v>644.0790903382704</v>
       </c>
       <c r="N3" t="n">
-        <v>197.6492430871648</v>
+        <v>197.6492430871639</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131348</v>
+        <v>552.2285252131339</v>
       </c>
       <c r="P3" t="n">
-        <v>107.5744923346225</v>
+        <v>107.5744923346218</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.5645562859964</v>
+        <v>231.564556285996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055956</v>
+        <v>100.9398032055953</v>
       </c>
       <c r="L4" t="n">
-        <v>185.255503425011</v>
+        <v>185.2555034250105</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552509</v>
+        <v>205.8200173552504</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101268</v>
+        <v>206.4155889101263</v>
       </c>
       <c r="O4" t="n">
-        <v>174.48012941243</v>
+        <v>174.4801294124296</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084607</v>
+        <v>125.5396282084604</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110672</v>
+        <v>2.639272596110416</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>410.7784365939666</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>178.9335704591082</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
         <v>68.29072693268387</v>
@@ -35024,13 +35024,13 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>377.4642727362756</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>472.2935843995645</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
         <v>22.96660727472423</v>
@@ -35173,19 +35173,19 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>184.0654412774597</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>439.3161260532724</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35252,22 +35252,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>567.2317502193044</v>
+        <v>418.3695001454051</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>68.26085851453769</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717054</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>44.09163190712582</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578466</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>71.39556506237767</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949316</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295191</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066202</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>
